--- a/PointCloud任务整理.xlsx
+++ b/PointCloud任务整理.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/Documents/实验室/Point Cloud调研/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/Documents/实验室/Point Cloud调研/Point-Cloud-Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5C363B-5487-DA45-A922-C80B7EF9EA65}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8C4E11-413D-8340-8186-F37C1AEA278C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{19BC00F5-CA4E-8448-82B5-085F55280254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{19BC00F5-CA4E-8448-82B5-085F55280254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$45</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>任务</t>
   </si>
@@ -268,13 +271,34 @@
   </si>
   <si>
     <t>刚性和可变性KPConv</t>
+  </si>
+  <si>
+    <t>图例</t>
+  </si>
+  <si>
+    <t>直接处理</t>
+  </si>
+  <si>
+    <t>基于体素</t>
+  </si>
+  <si>
+    <t>多视角</t>
+  </si>
+  <si>
+    <t>基于图（graph）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PVRNet: Point-View Relation Neural Network for 3D Shape Recognition </t>
+  </si>
+  <si>
+    <t>将multi-view和点云信息进行融合</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,8 +306,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +324,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -309,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -320,7 +369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9654761A-26E6-6341-B5D0-E8AA89B989B0}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="139" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="139" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,9 +702,10 @@
     <col min="3" max="3" width="79" customWidth="1"/>
     <col min="4" max="4" width="6.33203125" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -667,12 +721,15 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -684,10 +741,14 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="I2" s="4"/>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
@@ -697,452 +758,470 @@
       <c r="E3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="I3" s="5"/>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>24</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>4</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>18</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>28</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>29</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>32</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="3">
         <v>5</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>9</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3" t="s">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>22</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>33</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="3"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>12</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3" t="s">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>13</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>17</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>26</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>27</v>
       </c>
-      <c r="E27" s="3"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>31</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="2">
+        <v>34</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>8</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D30" s="2">
         <v>14</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D31" s="2">
         <v>15</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
         <v>9</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D32" s="2">
         <v>19</v>
       </c>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>10</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D33" s="2">
         <v>20</v>
       </c>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
         <v>11</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C34" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D34" s="2">
         <v>23</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E34" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
         <v>12</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D35" s="2">
         <v>25</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -1207,22 +1286,30 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
   </sheetData>
+  <autoFilter ref="D1:D45" xr:uid="{E52A57FF-1135-1746-A9BC-98D89C697E36}"/>
   <mergeCells count="14">
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B23:B28"/>
-    <mergeCell ref="A23:A28"/>
-    <mergeCell ref="B11:B18"/>
-    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A23:A29"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="A11:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PointCloud任务整理.xlsx
+++ b/PointCloud任务整理.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ying/Documents/实验室/Point Cloud调研/Point-Cloud-Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8C4E11-413D-8340-8186-F37C1AEA278C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490CD011-38C9-8844-B13D-CA6C7CEB5D56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15900" xr2:uid="{19BC00F5-CA4E-8448-82B5-085F55280254}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{19BC00F5-CA4E-8448-82B5-085F55280254}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>任务</t>
   </si>
@@ -54,9 +54,6 @@
     <t>直接使用点云做场景流信息生成</t>
   </si>
   <si>
-    <t>点云对抗样本生成</t>
-  </si>
-  <si>
     <t>Generating 3D Adversarial Point Clouds</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>FilterReg: Robust and Efficient Probabilistic Point-Set Registration using Gaussian Filter and Twist Parameterization</t>
   </si>
   <si>
-    <t>转化为最大似然估计</t>
-  </si>
-  <si>
     <t>PointConv: Deep Convolutional Networks on 3D Point Clouds</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t xml:space="preserve">PointPillars: Fast Encoders for Object Detection from Point Clouds </t>
   </si>
   <si>
-    <t>加速点云编码，雷达数据</t>
-  </si>
-  <si>
     <t>PointRCNN: 3D Object Proposal Generation and Detection from Point Cloud</t>
   </si>
   <si>
@@ -246,9 +237,6 @@
     <t xml:space="preserve">SGPN: Similarity Group Proposal Network for 3D Point Cloud Instance Segmentation </t>
   </si>
   <si>
-    <t>实例分割，相似矩阵</t>
-  </si>
-  <si>
     <t xml:space="preserve">3D Semantic Segmentation with Submanifold Sparse Convolutional Networks </t>
   </si>
   <si>
@@ -292,13 +280,44 @@
   </si>
   <si>
     <t>将multi-view和点云信息进行融合</t>
+  </si>
+  <si>
+    <t>点云对抗样本生成,PointNet</t>
+  </si>
+  <si>
+    <t>基于概率</t>
+  </si>
+  <si>
+    <r>
+      <t>转化为最大似然估计，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>permutohedral lattice空间</t>
+    </r>
+  </si>
+  <si>
+    <t>Point Net提特征，实例分割，相似矩阵</t>
+  </si>
+  <si>
+    <t>PointNet++</t>
+  </si>
+  <si>
+    <t>加速点云编码，雷达数据（介于voxel和multiview之间，用了柱状结构，压成伪图片）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,8 +332,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -345,6 +372,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -358,13 +397,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,7 +409,32 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -692,28 +753,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9654761A-26E6-6341-B5D0-E8AA89B989B0}">
   <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="139" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:B29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="139" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="79" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="41.1640625" customWidth="1"/>
+    <col min="6" max="8" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -722,17 +784,17 @@
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="1">
@@ -741,284 +803,288 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
       <c r="J2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>11</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="5"/>
+        <v>29</v>
+      </c>
+      <c r="I3" s="4"/>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="8">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="I4" s="5"/>
       <c r="J4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2" t="s">
-        <v>52</v>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D6" s="2">
         <v>21</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>56</v>
       </c>
       <c r="D7" s="2">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="8">
         <v>3</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D8" s="2">
         <v>4</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="2">
         <v>6</v>
       </c>
       <c r="E10" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
+        <v>4</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>8</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="D13" s="2">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="D14" s="2">
         <v>18</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2" t="s">
-        <v>67</v>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="D15" s="2">
         <v>28</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2" t="s">
-        <v>69</v>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
+        <v>66</v>
       </c>
       <c r="D16" s="2">
         <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2" t="s">
-        <v>71</v>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="2">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8" t="s">
-        <v>75</v>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="D18" s="2">
         <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>26</v>
+      <c r="B19" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="D19" s="2">
         <v>9</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="D20" s="2">
         <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
-        <v>77</v>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
       </c>
       <c r="D21" s="2">
         <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -1026,77 +1092,79 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D22" s="2">
         <v>10</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="8">
         <v>7</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
       <c r="C24" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>13</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
       <c r="C25" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2">
         <v>17</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D26" s="2">
         <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D27" s="2">
         <v>27</v>
@@ -1104,59 +1172,59 @@
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28" s="2">
         <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D29" s="2">
         <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="8">
         <v>8</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>37</v>
+      <c r="B30" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D31" s="2">
         <v>15</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1164,10 +1232,10 @@
         <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2">
         <v>19</v>
@@ -1179,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2">
         <v>20</v>
@@ -1194,16 +1262,16 @@
         <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D34" s="2">
         <v>23</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1211,16 +1279,16 @@
         <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D35" s="2">
         <v>25</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1296,12 +1364,6 @@
   </sheetData>
   <autoFilter ref="D1:D45" xr:uid="{E52A57FF-1135-1746-A9BC-98D89C697E36}"/>
   <mergeCells count="14">
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B23:B29"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A4:A7"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B8:B10"/>
@@ -1310,6 +1372,12 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B11:B18"/>
     <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
